--- a/Data/tables/random_forest_accuracies_all_sets_val-per-date_2class_formatted.xlsx
+++ b/Data/tables/random_forest_accuracies_all_sets_val-per-date_2class_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Demian\Uni_Halle\S2-S25\LSS1\working_directory\Data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF0D93D-E3B7-465E-870D-F5550CCFACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44472769-D07D-4B10-A159-32510C5B59AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="2205" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall_accuracy" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="producer_accuracy_veg" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -125,14 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,7 +446,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" s="4"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -459,38 +459,38 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -521,7 +521,7 @@
       <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -552,7 +552,7 @@
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -583,7 +583,7 @@
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -596,7 +596,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -609,10 +609,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="4"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
